--- a/Docs/项目计划表.xlsx
+++ b/Docs/项目计划表.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yixin\Documents\Open-Robotic-Cars\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="采购计划表" sheetId="1" r:id="rId1"/>
     <sheet name="时间安排表" sheetId="2" r:id="rId2"/>
     <sheet name="相关人员备注" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
   <si>
     <t>物品</t>
   </si>
@@ -328,19 +333,29 @@
   </si>
   <si>
     <t>车辆底层</t>
+  </si>
+  <si>
+    <t>完成/16-07-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/16-08-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,24 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,133 +374,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,13 +388,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,19 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,198 +442,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -790,253 +483,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,59 +554,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1416,22 +831,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="7" max="7" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +921,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +939,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +955,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1561,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +993,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1009,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1025,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
@@ -1627,7 +1041,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +1059,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1077,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1095,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1113,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
@@ -1737,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1169,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>31</v>
       </c>
@@ -1768,59 +1182,58 @@
       <c r="E19" s="25"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.125" customWidth="1"/>
@@ -1829,7 +1242,7 @@
     <col min="6" max="6" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -1849,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>42522</v>
       </c>
@@ -1867,7 +1280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>42552</v>
       </c>
@@ -1885,7 +1298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>42583</v>
       </c>
@@ -1903,7 +1316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>42614</v>
       </c>
@@ -1917,8 +1330,11 @@
       <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>42644</v>
       </c>
@@ -1932,8 +1348,11 @@
       <c r="E6" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>42675</v>
       </c>
@@ -1948,7 +1367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>42705</v>
       </c>
@@ -1963,7 +1382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>42736</v>
       </c>
@@ -1978,7 +1397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>42767</v>
       </c>
@@ -1993,7 +1412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>42795</v>
       </c>
@@ -2008,7 +1427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>42826</v>
       </c>
@@ -2023,7 +1442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>42856</v>
       </c>
@@ -2038,7 +1457,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>42887</v>
       </c>
@@ -2053,7 +1472,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>42917</v>
       </c>
@@ -2068,7 +1487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>42948</v>
       </c>
@@ -2083,7 +1502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>42979</v>
       </c>
@@ -2098,7 +1517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>43009</v>
       </c>
@@ -2113,7 +1532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>43040</v>
       </c>
@@ -2128,7 +1547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>43070</v>
       </c>
@@ -2143,7 +1562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>43101</v>
       </c>
@@ -2157,8 +1576,11 @@
       <c r="E21" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>43132</v>
       </c>
@@ -2172,8 +1594,11 @@
       <c r="E22" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>43160</v>
       </c>
@@ -2188,7 +1613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>43191</v>
       </c>
@@ -2203,7 +1628,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>43221</v>
       </c>
@@ -2218,7 +1643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>43252</v>
       </c>
@@ -2233,7 +1658,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>43282</v>
       </c>
@@ -2248,7 +1673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>43313</v>
       </c>
@@ -2263,7 +1688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>43344</v>
       </c>
@@ -2278,7 +1703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>43374</v>
       </c>
@@ -2293,7 +1718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>43405</v>
       </c>
@@ -2308,7 +1733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" ht="42.75" spans="1:5">
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -2321,58 +1746,57 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="4:5">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
@@ -2380,7 +1804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -2388,17 +1812,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -2407,8 +1831,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/项目计划表.xlsx
+++ b/Docs/项目计划表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>物品</t>
   </si>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/16-08-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1234,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1366,6 +1370,9 @@
       <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1777,7 +1784,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/项目计划表.xlsx
+++ b/Docs/项目计划表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>物品</t>
   </si>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>完成/16-08-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成/16-09-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1238,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,6 +1391,9 @@
       </c>
       <c r="E8" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
